--- a/pred_ohlcv/54_21/2019-10-19 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 FX ohlcv.xlsx
@@ -860,7 +860,7 @@
         <v>64730.06732831858</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>64730.06732831858</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>46484.72692831857</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>46666.17792831858</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>40786.52392831858</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>41519.24202831858</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>41519.24202831858</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>41655.07082831858</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>38558.84892831858</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>38559.84892831858</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>42110.81492831858</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>42110.81492831858</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>41372.80582831858</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>41373.80582831858</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>41373.80582831858</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>40264.73012831858</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>40240.02742831858</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>25190.72232831858</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-8277.023271681412</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-19 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 FX ohlcv.xlsx
@@ -860,7 +860,7 @@
         <v>64730.06732831858</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>64730.06732831858</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>46484.72692831857</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>46666.17792831858</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>40786.52392831858</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>41519.24202831858</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>41519.24202831858</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>41655.07082831858</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>42110.81492831858</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>41372.80582831858</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>41373.80582831858</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>41373.80582831858</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>40264.73012831858</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>40240.02742831858</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-8278.023271681412</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
